--- a/data/trans_bre/P19D_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.05891829053425793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.7311185970049597</v>
+        <v>-0.7311185970049601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.329217025193743</v>
@@ -649,7 +649,7 @@
         <v>0.01298583574115138</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2464720446371923</v>
+        <v>-0.2464720446371925</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.635191776779203</v>
+        <v>-4.662508431287095</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.31959904873802</v>
+        <v>-1.247248241553584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.219627692510179</v>
+        <v>-2.957307775574355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.08940829925347</v>
+        <v>-3.012247124049612</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.735132248609384</v>
+        <v>-0.7319107324861567</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3393217107796443</v>
+        <v>-0.3429131016844825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5321173984244729</v>
+        <v>-0.4999560421028105</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6547521597295459</v>
+        <v>-0.6592899456549248</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.921580731816384</v>
+        <v>1.600513911032413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.213004013042455</v>
+        <v>5.23877844812198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.367943739657895</v>
+        <v>3.501362097144599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8333721516536086</v>
+        <v>0.8256250209756901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8465193152701563</v>
+        <v>0.6222632700386074</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.641739902352314</v>
+        <v>2.744628949875452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.13022488161215</v>
+        <v>1.116955031085141</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4946543471831248</v>
+        <v>0.5017875387070252</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.518698654084425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.5366501044763914</v>
+        <v>-0.5366501044763907</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3433103583196476</v>
@@ -749,7 +749,7 @@
         <v>-0.2216652196027817</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1644510687415416</v>
+        <v>-0.1644510687415414</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.093711791293337</v>
+        <v>-5.867626678628939</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.093193798014237</v>
+        <v>-6.576100737933626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.826027873993223</v>
+        <v>-5.735331121581015</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.661764898051059</v>
+        <v>-2.61802511659774</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7408509917597151</v>
+        <v>-0.7231180806639715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.577284309932581</v>
+        <v>-0.6021750363786647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6264892229454107</v>
+        <v>-0.6169310690037518</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6095575771138912</v>
+        <v>-0.6013564909353721</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.19666111824941</v>
+        <v>1.259075977234123</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.454577915515326</v>
+        <v>2.640371008179228</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.276479813215095</v>
+        <v>2.292486775756982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.544331744380094</v>
+        <v>1.629030552859678</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4179918906190228</v>
+        <v>0.4354640187885422</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4575417452164168</v>
+        <v>0.5081441481412289</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5140450301548816</v>
+        <v>0.4613971752436618</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7113290525260715</v>
+        <v>0.7803259368309798</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.282470590567718</v>
+        <v>-5.363207993246824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.04000164768062</v>
+        <v>-11.24231149498388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.920113598079745</v>
+        <v>-4.327260022182005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.724004982366173</v>
+        <v>-7.876094313980879</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6284274993732447</v>
+        <v>-0.6493218616094356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7469551825609415</v>
+        <v>-0.7496486417121311</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3850261460225592</v>
+        <v>-0.4418534419172004</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.784099365691511</v>
+        <v>-0.7674433891570647</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.35600070769944</v>
+        <v>4.654627956089652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.260505495377814</v>
+        <v>-2.534458568149008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.660390168201578</v>
+        <v>7.446776786774945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4233848216260679</v>
+        <v>-0.3654152820773553</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7556763830796375</v>
+        <v>0.8273835362956058</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1868518068076278</v>
+        <v>-0.2005721972863804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.046801946994651</v>
+        <v>0.9938054140058561</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.02641514546818555</v>
+        <v>-0.01480794296191071</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.472523519194656</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.796994996830833</v>
+        <v>-4.796994996830831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.157537303652447</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.005573809057837</v>
+        <v>-3.755240553019528</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.0919120293284</v>
+        <v>-11.77001277020301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.397060930380023</v>
+        <v>-1.166510065257421</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.940658283233658</v>
+        <v>-6.858770843321968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4372435986154066</v>
+        <v>-0.4342560622627744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.604819878196201</v>
+        <v>-0.5951881027576206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.15221200743631</v>
+        <v>-0.1258961588565634</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6595295705067804</v>
+        <v>-0.656397988628752</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.854620493589594</v>
+        <v>1.561395931256428</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.89353616849595</v>
+        <v>-5.040134871952582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.653223702702465</v>
+        <v>4.801332216547503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.50989584623197</v>
+        <v>-2.546522578919356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2903555275375468</v>
+        <v>0.2579202709607669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2941121044874746</v>
+        <v>-0.30264798554216</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6362163329737677</v>
+        <v>0.6668540887089249</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3273990093151561</v>
+        <v>-0.3035774482364169</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.342897585108886</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-9.879574050473479</v>
+        <v>-9.879574050473487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5078466617866257</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3525627558461328</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.524247118053988</v>
+        <v>-0.5242471180539882</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.92055222609412</v>
+        <v>-12.37577847718023</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.16736301762691</v>
+        <v>-9.679319977217647</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.73444238463896</v>
+        <v>-9.598979830992265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.80021079288398</v>
+        <v>-14.24698952733517</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6996800538203584</v>
+        <v>-0.6901734152242048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3946148989732871</v>
+        <v>-0.4020717740373664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5453014529871391</v>
+        <v>-0.544131512015034</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6323965105929044</v>
+        <v>-0.6368501200067906</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.624721693800817</v>
+        <v>-2.462005626574313</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7340177463605146</v>
+        <v>0.2341119580443597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.5766502657028916</v>
+        <v>-0.9731242444423546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.430314693552229</v>
+        <v>-6.036920045896195</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2178839529699555</v>
+        <v>-0.2124096865564118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04364935170893495</v>
+        <v>0.0129720650707365</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.03808062315142838</v>
+        <v>-0.07741047755895389</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.3839758902289255</v>
+        <v>-0.3738636471191003</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.678572650272043</v>
+        <v>2.490585535887028</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.126286132088016</v>
+        <v>-1.570605038701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-8.631527701675987</v>
+        <v>-7.852093239105502</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.803559133319286</v>
+        <v>-7.388367116186396</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4378387764847138</v>
+        <v>0.3582962400527778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1628106896352181</v>
+        <v>-0.1306181047612342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5019630843994651</v>
+        <v>-0.470277030810353</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5293643260513735</v>
+        <v>-0.5244212176904255</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.277984238158183</v>
+        <v>8.371773708205918</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.182428821172502</v>
+        <v>7.011862856949351</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.518237286931412</v>
+        <v>1.731531657925128</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.350159086302234</v>
+        <v>5.068126453777784</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.885832713740566</v>
+        <v>5.842966673165084</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.081071374574777</v>
+        <v>1.068929543939201</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1779525451892414</v>
+        <v>0.1732578499859179</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.03106918114382</v>
+        <v>1.641964194412654</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.816617871837065</v>
+        <v>-1.837985773962832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.274830646012484</v>
+        <v>-4.232225064419032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.106936423724711</v>
+        <v>-1.982215560554077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.071927903016531</v>
+        <v>-4.097284869993403</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2313193192400815</v>
+        <v>-0.2393321577283277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.296733333256219</v>
+        <v>-0.2950971591825167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2089428490930892</v>
+        <v>-0.2002120614421675</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4315115750000181</v>
+        <v>-0.438014804228646</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9428580678872001</v>
+        <v>0.9202084400359445</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.8533655866680632</v>
+        <v>-0.7678180933022666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.061511777990281</v>
+        <v>1.193972777358968</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.531444308840261</v>
+        <v>-1.517798432009224</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1541135415376958</v>
+        <v>0.1410381360641769</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.06824608569405274</v>
+        <v>-0.06077361129935522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1240184523159212</v>
+        <v>0.1424442036159173</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.1927530801881335</v>
+        <v>-0.2006860304793288</v>
       </c>
     </row>
     <row r="25">
